--- a/static/files/Emails_OCC.xlsx
+++ b/static/files/Emails_OCC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fgvbr-my.sharepoint.com/personal/henrique_martins_fgv_br/Documents/git/open-code-community/static/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="8_{17D75790-831F-446E-9BD0-49AF4CB8D6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09BBF4EE-64A0-4135-BC2F-959855ED92DE}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="8_{17D75790-831F-446E-9BD0-49AF4CB8D6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D55756CD-6C3F-49BE-88FF-C7D751077CA4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{BA53DD1C-D7B9-4E57-8028-CCD7920A11CF}"/>
   </bookViews>
@@ -587,7 +587,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.21875" style="1" customWidth="1"/>
     <col min="2" max="2" width="32.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/static/files/Emails_OCC.xlsx
+++ b/static/files/Emails_OCC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fgvbr-my.sharepoint.com/personal/henrique_martins_fgv_br/Documents/git/open-code-community/static/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="116" documentId="8_{17D75790-831F-446E-9BD0-49AF4CB8D6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D55756CD-6C3F-49BE-88FF-C7D751077CA4}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="8_{17D75790-831F-446E-9BD0-49AF4CB8D6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB6A851B-BA5F-4481-BFD8-8436AF9D73F2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{BA53DD1C-D7B9-4E57-8028-CCD7920A11CF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{BA53DD1C-D7B9-4E57-8028-CCD7920A11CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>arnaldo.nj@gmail.com</t>
   </si>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t>gabrielldboechat@gmail.com</t>
+  </si>
+  <si>
+    <t>Maria Clara Werneck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mclarawerneck@gmail.com </t>
   </si>
 </sst>
 </file>
@@ -579,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3971F3FB-C5C6-49D0-BD72-3937D95021C2}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -735,82 +741,90 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B26">
-    <sortCondition ref="A3:A26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B27">
+    <sortCondition ref="A3:A27"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B23" r:id="rId1" xr:uid="{B02759E4-8224-42BF-8129-28611C35BB56}"/>
+    <hyperlink ref="B24" r:id="rId1" xr:uid="{B02759E4-8224-42BF-8129-28611C35BB56}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{57578DC9-AB2F-4F79-8A21-FEB7FCBF4FF9}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{E894C13C-DACB-4857-AC58-E28E6437C353}"/>
     <hyperlink ref="B6" r:id="rId4" xr:uid="{72A1465B-DC5A-4AE9-8521-C3FF423B4118}"/>
@@ -819,17 +833,18 @@
     <hyperlink ref="B16" r:id="rId7" xr:uid="{2012D897-BA9D-43CA-B448-52DDAEC68A6C}"/>
     <hyperlink ref="B17" r:id="rId8" xr:uid="{DFAA7228-321A-4C86-AE87-EBBC6CF83765}"/>
     <hyperlink ref="B18" r:id="rId9" xr:uid="{1F4FD94A-2F86-4B45-9493-0706E793C56A}"/>
-    <hyperlink ref="B19" r:id="rId10" xr:uid="{0259C612-A98A-47B0-BE09-B7D862371EA9}"/>
-    <hyperlink ref="B20" r:id="rId11" xr:uid="{F87519B5-517B-4468-AE05-F63A3C4C88DC}"/>
-    <hyperlink ref="B22" r:id="rId12" xr:uid="{A34EACEF-1E55-4B8E-85C9-EDA5881895E9}"/>
-    <hyperlink ref="B26" r:id="rId13" xr:uid="{634F5786-EF09-42F5-889C-5B3FCD511980}"/>
-    <hyperlink ref="B27" r:id="rId14" xr:uid="{0BB2958D-51D5-4D86-936C-A433B4F35E4D}"/>
-    <hyperlink ref="B21" r:id="rId15" xr:uid="{402C9D99-0A35-4602-9567-D47602667465}"/>
+    <hyperlink ref="B20" r:id="rId10" xr:uid="{0259C612-A98A-47B0-BE09-B7D862371EA9}"/>
+    <hyperlink ref="B21" r:id="rId11" xr:uid="{F87519B5-517B-4468-AE05-F63A3C4C88DC}"/>
+    <hyperlink ref="B23" r:id="rId12" xr:uid="{A34EACEF-1E55-4B8E-85C9-EDA5881895E9}"/>
+    <hyperlink ref="B27" r:id="rId13" xr:uid="{634F5786-EF09-42F5-889C-5B3FCD511980}"/>
+    <hyperlink ref="B28" r:id="rId14" xr:uid="{0BB2958D-51D5-4D86-936C-A433B4F35E4D}"/>
+    <hyperlink ref="B22" r:id="rId15" xr:uid="{402C9D99-0A35-4602-9567-D47602667465}"/>
     <hyperlink ref="B12" r:id="rId16" xr:uid="{653A4366-D4F6-4B54-B45C-8A52213E5723}"/>
     <hyperlink ref="B2" r:id="rId17" xr:uid="{C8F4A81E-A373-4457-AD76-026737C8E0A2}"/>
     <hyperlink ref="B11" r:id="rId18" xr:uid="{60FC0333-A59C-4784-A6EE-6028EBE1D058}"/>
+    <hyperlink ref="B19" r:id="rId19" xr:uid="{1073CE39-8405-4D2D-B1BA-944D0B978DF9}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
--- a/static/files/Emails_OCC.xlsx
+++ b/static/files/Emails_OCC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fgvbr-my.sharepoint.com/personal/henrique_martins_fgv_br/Documents/git/open-code-community/static/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="8_{17D75790-831F-446E-9BD0-49AF4CB8D6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB6A851B-BA5F-4481-BFD8-8436AF9D73F2}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="8_{17D75790-831F-446E-9BD0-49AF4CB8D6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{927590C1-35DD-43C0-A794-B8DD3865277C}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{BA53DD1C-D7B9-4E57-8028-CCD7920A11CF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>arnaldo.nj@gmail.com</t>
   </si>
@@ -199,6 +199,12 @@
   </si>
   <si>
     <t xml:space="preserve">mclarawerneck@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">maike.mota@yahoo.com </t>
+  </si>
+  <si>
+    <t>Maike Mota</t>
   </si>
 </sst>
 </file>
@@ -585,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3971F3FB-C5C6-49D0-BD72-3937D95021C2}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -817,6 +823,14 @@
       </c>
       <c r="B28" s="3" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -843,8 +857,9 @@
     <hyperlink ref="B2" r:id="rId17" xr:uid="{C8F4A81E-A373-4457-AD76-026737C8E0A2}"/>
     <hyperlink ref="B11" r:id="rId18" xr:uid="{60FC0333-A59C-4784-A6EE-6028EBE1D058}"/>
     <hyperlink ref="B19" r:id="rId19" xr:uid="{1073CE39-8405-4D2D-B1BA-944D0B978DF9}"/>
+    <hyperlink ref="B29" r:id="rId20" xr:uid="{AA2E19C1-1D1D-4085-A0C8-6E65AF40CBC6}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>